--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
@@ -4,42 +4,36 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" firstSheet="26" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="~January 2020" sheetId="1" r:id="rId2"/>
     <sheet name="January 2020" sheetId="13" r:id="rId3"/>
-    <sheet name="$January 2020" sheetId="28" r:id="rId4"/>
-    <sheet name="#January 2020" sheetId="14" r:id="rId5"/>
-    <sheet name="~February 2020" sheetId="2" r:id="rId6"/>
-    <sheet name="February 2020" sheetId="15" r:id="rId7"/>
-    <sheet name="$February 2020" sheetId="16" r:id="rId8"/>
-    <sheet name="March Arrears for 4 members" sheetId="3" state="hidden" r:id="rId9"/>
-    <sheet name="~March 2020" sheetId="4" r:id="rId10"/>
-    <sheet name="March 2020" sheetId="17" r:id="rId11"/>
-    <sheet name="$March 2020" sheetId="18" r:id="rId12"/>
-    <sheet name="~April 2020" sheetId="5" r:id="rId13"/>
-    <sheet name="April 2020" sheetId="19" r:id="rId14"/>
-    <sheet name="$April 2020" sheetId="29" r:id="rId15"/>
-    <sheet name="~May 2020" sheetId="6" r:id="rId16"/>
-    <sheet name="May 2020" sheetId="20" r:id="rId17"/>
-    <sheet name="$May 2020" sheetId="30" r:id="rId18"/>
-    <sheet name="~June 2020" sheetId="7" r:id="rId19"/>
-    <sheet name="June 2020" sheetId="21" r:id="rId20"/>
-    <sheet name="$June 2020" sheetId="31" r:id="rId21"/>
-    <sheet name="~July 2020 " sheetId="8" r:id="rId22"/>
-    <sheet name="July 2020 " sheetId="22" r:id="rId23"/>
-    <sheet name="$July 2020 " sheetId="23" r:id="rId24"/>
-    <sheet name="~August 2020" sheetId="9" r:id="rId25"/>
-    <sheet name="August 2020" sheetId="24" r:id="rId26"/>
-    <sheet name="$August 2020" sheetId="25" r:id="rId27"/>
-    <sheet name="~September 2020" sheetId="10" r:id="rId28"/>
-    <sheet name="September 2020" sheetId="26" r:id="rId29"/>
-    <sheet name="$September 2020" sheetId="32" r:id="rId30"/>
-    <sheet name="~October 2020" sheetId="11" r:id="rId31"/>
-    <sheet name="October 2020" sheetId="27" r:id="rId32"/>
-    <sheet name="$October 2020" sheetId="33" r:id="rId33"/>
-    <sheet name="November 2020" sheetId="12" state="hidden" r:id="rId34"/>
+    <sheet name="#January 2020" sheetId="14" r:id="rId4"/>
+    <sheet name="~February 2020" sheetId="2" r:id="rId5"/>
+    <sheet name="February 2020" sheetId="15" r:id="rId6"/>
+    <sheet name="$February 2020" sheetId="16" r:id="rId7"/>
+    <sheet name="March Arrears for 4 members" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="~March 2020" sheetId="4" r:id="rId9"/>
+    <sheet name="March 2020" sheetId="17" r:id="rId10"/>
+    <sheet name="$March 2020" sheetId="18" r:id="rId11"/>
+    <sheet name="~April 2020" sheetId="5" r:id="rId12"/>
+    <sheet name="April 2020" sheetId="19" r:id="rId13"/>
+    <sheet name="~May 2020" sheetId="6" r:id="rId14"/>
+    <sheet name="May 2020" sheetId="20" r:id="rId15"/>
+    <sheet name="~June 2020" sheetId="7" r:id="rId16"/>
+    <sheet name="June 2020" sheetId="21" r:id="rId17"/>
+    <sheet name="~July 2020 " sheetId="8" r:id="rId18"/>
+    <sheet name="July 2020 " sheetId="22" r:id="rId19"/>
+    <sheet name="$July 2020 " sheetId="23" r:id="rId20"/>
+    <sheet name="~August 2020" sheetId="9" r:id="rId21"/>
+    <sheet name="August 2020" sheetId="24" r:id="rId22"/>
+    <sheet name="$August 2020" sheetId="25" r:id="rId23"/>
+    <sheet name="~September 2020" sheetId="10" r:id="rId24"/>
+    <sheet name="September 2020" sheetId="26" r:id="rId25"/>
+    <sheet name="~October 2020" sheetId="11" r:id="rId26"/>
+    <sheet name="October 2020" sheetId="27" r:id="rId27"/>
+    <sheet name="November 2020" sheetId="12" state="hidden" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -47,7 +41,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -77,7 +71,7 @@
 </comments>
 </file>
 
-<file path=xl/comments30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -97,7 +91,7 @@
 </comments>
 </file>
 
-<file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -128,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="227">
   <si>
     <t>Square Inc PRSA - 604425</t>
   </si>
@@ -625,25 +619,61 @@
     <t>ER</t>
   </si>
   <si>
+    <t>Refno 0839415 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>839415</t>
+  </si>
+  <si>
+    <t>Refno 0862567 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>862567</t>
   </si>
   <si>
+    <t>Refno 0881957 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>881957</t>
+  </si>
+  <si>
+    <t>Refno 0886344 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>886344</t>
   </si>
   <si>
+    <t>Refno 0896998 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>896998</t>
+  </si>
+  <si>
+    <t>Refno 0896997 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>896997</t>
   </si>
   <si>
+    <t>Refno 0900332 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>900332</t>
+  </si>
+  <si>
+    <t>Refno 0928091 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0931165 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>931165</t>
@@ -661,7 +691,178 @@
     <t>7837</t>
   </si>
   <si>
-    <t>2_Errors_found</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1161520</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>8,000.00</t>
+  </si>
+  <si>
+    <t>ILIM Test 2</t>
+  </si>
+  <si>
+    <t>1158565</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>7,433.97</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM April 2021</t>
+  </si>
+  <si>
+    <t>1155233</t>
+  </si>
+  <si>
+    <t>15/03/2021</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>4,282.75</t>
+  </si>
+  <si>
+    <t>ILIM R. O'Brien TVIN</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
+  </si>
+  <si>
+    <t>1_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -676,28 +877,104 @@
     <t>No Contributions columns (EE/ER/AVC) were found</t>
   </si>
   <si>
-    <t>schemeNotNull</t>
+    <t>Refno 0839415 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
   </si>
   <si>
-    <t>The Scheme ID is missing</t>
+    <t>Refno 0862567 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0881957 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0886344 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0896998 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0896997 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0900332 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0928091 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0931165 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0935932 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0943285 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>943285</t>
   </si>
   <si>
+    <t>Refno 0946506 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>946506</t>
   </si>
   <si>
-    <t>3_Errors_found</t>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>No Forename column was found</t>
   </si>
   <si>
+    <t>Refno 0935932 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0943285 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0946506 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0962325 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>962325</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>Refno 0962325 does not exist for Scheme ID 601010
+Member forename is not populated
+Member does not have open Paypoints</t>
   </si>
 </sst>
 </file>
@@ -710,7 +987,7 @@
     <numFmt numFmtId="166" formatCode="_-[$€-1809]* #,##0.00_-;\-[$€-1809]* #,##0.00_-;_-[$€-1809]* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +1113,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -981,7 +1273,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -1211,12 +1503,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -5108,151 +5401,9 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
-    <col min="2" max="16384" width="9.25" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="107" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5264,41 +5415,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
+      <c r="A2" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="107" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5307,7 +5450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -10503,7 +10646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10516,7 +10659,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -10540,10 +10683,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -10555,13 +10700,15 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>173.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+        <v>625.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -10573,13 +10720,15 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+        <v>1355.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -10591,13 +10740,15 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+        <v>373.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -10609,13 +10760,15 @@
         <v>1791.06</v>
       </c>
       <c r="F5" s="107">
-        <v>895.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+        <v>3333.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -10627,13 +10780,15 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+        <v>723.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -10645,13 +10800,15 @@
         <v>254.17</v>
       </c>
       <c r="F7" s="107">
-        <v>127.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+        <v>444.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -10663,11 +10820,13 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>585.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+        <v>2056.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -10681,13 +10840,15 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -10699,11 +10860,13 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>475.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+        <v>1899.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -10717,13 +10880,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>433.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+        <v>1708.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -10735,13 +10900,15 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -10753,7 +10920,7 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>366.5</v>
+        <v>733.0</v>
       </c>
     </row>
   </sheetData>
@@ -10762,49 +10929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -15851,7 +15976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15864,7 +15989,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.5" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -15888,10 +16013,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -15903,13 +16030,15 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>173.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+        <v>798.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -15921,13 +16050,15 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+        <v>1710.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -15939,13 +16070,15 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+        <v>480.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -15957,13 +16090,15 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>798.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+        <v>4131.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -15975,13 +16110,15 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+        <v>928.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -15993,13 +16130,15 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+        <v>317.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -16011,11 +16150,13 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>585.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+        <v>2642.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -16029,13 +16170,15 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -16047,11 +16190,13 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>475.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+        <v>2374.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -16065,13 +16210,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>433.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+        <v>2141.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -16083,13 +16230,15 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -16101,11 +16250,13 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>366.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="110"/>
+        <v>1099.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>223</v>
+      </c>
       <c r="B14" s="107" t="s">
         <v>88</v>
       </c>
@@ -16128,49 +16279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -21219,7 +21328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -21232,7 +21341,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -21256,10 +21365,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -21271,13 +21382,15 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>173.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+        <v>451.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -21289,13 +21402,15 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -21307,13 +21422,15 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+        <v>266.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -21325,13 +21442,15 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>268.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+        <v>2437.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -21343,13 +21462,15 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+        <v>518.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -21361,13 +21482,15 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+        <v>317.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -21379,11 +21502,13 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>585.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+        <v>1471.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -21397,13 +21522,15 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -21415,11 +21542,13 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>475.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+        <v>1424.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -21433,13 +21562,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>433.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+        <v>1275.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -21454,10 +21585,12 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -21472,10 +21605,12 @@
         <v>366.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>224</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -21487,7 +21622,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>75.0</v>
+        <v>366.5</v>
       </c>
     </row>
   </sheetData>
@@ -21496,254 +21631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
-    <col min="2" max="16384" width="9.25" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="107">
-        <v>281.75</v>
-      </c>
-      <c r="F2" s="107">
-        <v>140.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="107">
-        <v>666.67</v>
-      </c>
-      <c r="F3" s="107">
-        <v>333.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="107">
-        <v>177.5</v>
-      </c>
-      <c r="F4" s="107">
-        <v>88.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="107">
-        <v>1625.0</v>
-      </c>
-      <c r="F5" s="107">
-        <v>812.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="107">
-        <v>326.67</v>
-      </c>
-      <c r="F6" s="107">
-        <v>163.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="107">
-        <v>205.42</v>
-      </c>
-      <c r="F7" s="107">
-        <v>102.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="107">
-        <v>920.83</v>
-      </c>
-      <c r="F8" s="107">
-        <v>460.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="107">
-        <v>100.0</v>
-      </c>
-      <c r="F9" s="107">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="107">
-        <v>920.83</v>
-      </c>
-      <c r="F10" s="107">
-        <v>460.42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -26788,7 +26676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -26801,7 +26689,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -26819,10 +26707,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -26831,10 +26721,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -26843,10 +26735,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -26855,10 +26749,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -26867,10 +26763,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -26879,10 +26777,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -26891,10 +26791,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -26903,8 +26805,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -26915,10 +26819,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -26927,8 +26833,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25">
-      <c r="A11" s="110"/>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -26939,10 +26847,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -26951,10 +26861,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -26963,10 +26875,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>224</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -26981,12 +26895,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -26998,33 +26912,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
+      <c r="A2" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +26939,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="47.25" style="107"/>
+    <col min="2" max="16384" width="9.25" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="107">
+        <v>281.75</v>
+      </c>
+      <c r="F2" s="107">
+        <v>140.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="107">
+        <v>666.67</v>
+      </c>
+      <c r="F3" s="107">
+        <v>333.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="107">
+        <v>177.5</v>
+      </c>
+      <c r="F4" s="107">
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="107">
+        <v>1625.0</v>
+      </c>
+      <c r="F5" s="107">
+        <v>812.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="107">
+        <v>326.67</v>
+      </c>
+      <c r="F6" s="107">
+        <v>163.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="107">
+        <v>205.42</v>
+      </c>
+      <c r="F7" s="107">
+        <v>102.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="107">
+        <v>920.83</v>
+      </c>
+      <c r="F8" s="107">
+        <v>460.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="107">
+        <v>100.0</v>
+      </c>
+      <c r="F9" s="107">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="107">
+        <v>920.83</v>
+      </c>
+      <c r="F10" s="107">
+        <v>460.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -32079,7 +32208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -32092,7 +32221,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -32113,10 +32242,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="110" t="s">
+        <v>204</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>13</v>
@@ -32125,13 +32256,15 @@
         <v>347.08</v>
       </c>
       <c r="E2" s="107">
-        <v>173.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="110"/>
+        <v>1319.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
+      <c r="A3" s="110" t="s">
+        <v>205</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>15</v>
@@ -32140,13 +32273,15 @@
         <v>710.0</v>
       </c>
       <c r="E3" s="107">
-        <v>355.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="110"/>
+        <v>2775.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="110" t="s">
+        <v>206</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>17</v>
@@ -32155,13 +32290,15 @@
         <v>213.75</v>
       </c>
       <c r="E4" s="107">
-        <v>106.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="110"/>
+        <v>800.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="110" t="s">
+        <v>207</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>19</v>
@@ -32170,13 +32307,15 @@
         <v>1596.82</v>
       </c>
       <c r="E5" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="110"/>
+        <v>4400.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="110" t="s">
+        <v>208</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>21</v>
@@ -32185,13 +32324,15 @@
         <v>410.0</v>
       </c>
       <c r="E6" s="107">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="110"/>
+        <v>1543.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="110" t="s">
+        <v>209</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>23</v>
@@ -32200,13 +32341,15 @@
         <v>0.0</v>
       </c>
       <c r="E7" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="110"/>
+        <v>317.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="110" t="s">
+        <v>210</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>25</v>
@@ -32215,11 +32358,13 @@
         <v>1170.83</v>
       </c>
       <c r="E8" s="107">
-        <v>585.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25">
-      <c r="A9" s="110"/>
+        <v>4398.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="110" t="s">
+        <v>211</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -32230,13 +32375,15 @@
         <v>100.0</v>
       </c>
       <c r="E9" s="107">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="110"/>
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="110" t="s">
+        <v>212</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>31</v>
@@ -32245,11 +32392,13 @@
         <v>950.0</v>
       </c>
       <c r="E10" s="107">
-        <v>475.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="110"/>
+        <v>3799.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="110" t="s">
+        <v>213</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -32260,13 +32409,15 @@
         <v>866.67</v>
       </c>
       <c r="E11" s="107">
-        <v>433.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="110"/>
+        <v>3441.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="110" t="s">
+        <v>214</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>53</v>
@@ -32275,13 +32426,15 @@
         <v>1000.0</v>
       </c>
       <c r="E12" s="107">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="110"/>
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
+      <c r="A13" s="110" t="s">
+        <v>216</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>56</v>
@@ -32290,13 +32443,15 @@
         <v>733.0</v>
       </c>
       <c r="E13" s="107">
-        <v>366.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="110"/>
+        <v>2199.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45">
+      <c r="A14" s="110" t="s">
+        <v>226</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>90</v>
@@ -32305,7 +32460,7 @@
         <v>150.0</v>
       </c>
       <c r="E14" s="107">
-        <v>75.0</v>
+        <v>300.0</v>
       </c>
     </row>
   </sheetData>
@@ -32314,12 +32469,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -32331,33 +32486,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
+      <c r="A2" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -32366,7 +32513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -37434,7 +37581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -37447,7 +37594,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -37471,10 +37618,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -37486,13 +37635,15 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+        <v>1319.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -37504,13 +37655,15 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+        <v>3130.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -37522,13 +37675,15 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+        <v>907.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -37540,13 +37695,15 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+        <v>4400.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -37558,13 +37715,15 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+        <v>1748.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -37576,13 +37735,15 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+        <v>317.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -37594,11 +37755,13 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+        <v>4400.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -37612,13 +37775,15 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -37630,11 +37795,13 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>475.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+        <v>4274.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -37648,13 +37815,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>108.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+        <v>4400.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -37666,13 +37835,15 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -37684,13 +37855,15 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>366.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="110"/>
+        <v>2565.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>224</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -37702,7 +37875,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>75.0</v>
+        <v>375.0</v>
       </c>
     </row>
   </sheetData>
@@ -37711,91 +37884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -43053,7 +43142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -43066,7 +43155,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.5" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -43090,10 +43179,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -43105,13 +43196,15 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="110"/>
+        <v>451.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -43123,13 +43216,15 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="110"/>
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -43141,13 +43236,15 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="110"/>
+        <v>266.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -43159,13 +43256,15 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="110"/>
+        <v>2437.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -43177,13 +43276,15 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="110"/>
+        <v>518.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -43195,13 +43296,15 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="110"/>
+        <v>317.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -43213,11 +43316,13 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="110"/>
+        <v>1471.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -43231,13 +43336,15 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="110"/>
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -43249,11 +43356,13 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>125.83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="110"/>
+        <v>1424.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="110" t="s">
+        <v>220</v>
+      </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
@@ -43267,13 +43376,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="110"/>
+        <v>1275.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="110" t="s">
+        <v>221</v>
+      </c>
       <c r="B12" s="107" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -43288,10 +43399,12 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="110" t="s">
+        <v>222</v>
+      </c>
       <c r="B13" s="107" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -43306,10 +43419,12 @@
         <v>366.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="110" t="s">
+        <v>224</v>
+      </c>
       <c r="B14" s="107" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -43321,11 +43436,13 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25">
-      <c r="A15" s="110"/>
+        <v>366.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="110" t="s">
+        <v>223</v>
+      </c>
       <c r="B15" s="107" t="s">
         <v>88</v>
       </c>
@@ -43339,11 +43456,13 @@
         <v>325.0</v>
       </c>
       <c r="F15" s="107">
-        <v>162.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25">
-      <c r="A16" s="110"/>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="110" t="s">
+        <v>223</v>
+      </c>
       <c r="B16" s="107" t="s">
         <v>88</v>
       </c>
@@ -43357,11 +43476,13 @@
         <v>97.5</v>
       </c>
       <c r="F16" s="107">
-        <v>48.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25">
-      <c r="A17" s="110"/>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="110" t="s">
+        <v>223</v>
+      </c>
       <c r="B17" s="107" t="s">
         <v>88</v>
       </c>
@@ -43375,7 +43496,7 @@
         <v>7331.26</v>
       </c>
       <c r="F17" s="107">
-        <v>3665.63</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -43384,49 +43505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -48634,9 +48713,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -48644,7 +48723,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="107"/>
+    <col min="1" max="1" width="17.75" style="107"/>
+    <col min="2" max="2" width="14.125" style="107"/>
+    <col min="3" max="3" width="8.25" style="107"/>
+    <col min="4" max="4" width="15.75" style="107"/>
+    <col min="5" max="5" width="13.25" style="107"/>
+    <col min="6" max="6" width="12.625" style="107"/>
+    <col min="7" max="7" width="15.75" style="107"/>
+    <col min="8" max="8" width="10.5" style="107"/>
+    <col min="9" max="9" width="22.125" style="107"/>
+    <col min="10" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -48665,22 +48753,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="107" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="107" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="107" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="107" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="107" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="107" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -48689,7 +49067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -52449,7 +52827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -52462,7 +52840,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="107"/>
+    <col min="1" max="1" width="47.25" style="107"/>
     <col min="2" max="16384" width="9.25" style="107"/>
   </cols>
   <sheetData>
@@ -52480,10 +52858,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="110"/>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="110" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="107" t="s">
         <v>12</v>
@@ -52492,10 +52872,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="110" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="107" t="s">
         <v>14</v>
@@ -52504,10 +52886,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="110"/>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="B4" s="107" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>16</v>
@@ -52516,10 +52900,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="110" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>18</v>
@@ -52528,10 +52914,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="110"/>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="110" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>20</v>
@@ -52540,10 +52928,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="110" t="s">
+        <v>131</v>
+      </c>
       <c r="B7" s="107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
@@ -52552,10 +52942,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="110" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>24</v>
@@ -52564,8 +52956,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="110" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
       </c>
@@ -52576,10 +52970,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="110"/>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="107" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>30</v>
@@ -52594,12 +52990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -52611,33 +53007,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>135</v>
+      <c r="A2" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -52646,7 +53034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -53928,7 +54316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -57959,4 +58347,170 @@
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0" footer="0"/>
   <pageSetup orientation="landscape" paperSize="9" scale="63"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="47.25" style="107"/>
+    <col min="2" max="16384" width="9.25" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45">
+      <c r="A2" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45">
+      <c r="A7" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45">
+      <c r="A8" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
+      <c r="A9" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45">
+      <c r="A11" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45">
+      <c r="A12" s="110" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45">
+      <c r="A13" s="110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/expected_secondzip/expected_aptrans_Hidden column3.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="226">
   <si>
     <t>Square Inc PRSA - 604425</t>
   </si>
@@ -721,7 +721,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -730,43 +730,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
+    <t>18/08/2021</t>
   </si>
   <si>
-    <t>8,000.00</t>
+    <t>7,517.33</t>
   </si>
   <si>
-    <t>ILIM Test 2</t>
+    <t>01/08/2021</t>
   </si>
   <si>
-    <t>1158565</t>
+    <t>ILIM August 2021</t>
   </si>
   <si>
-    <t>15/04/2021</t>
+    <t>1173971</t>
   </si>
   <si>
-    <t>7,433.97</t>
+    <t>16/07/2021</t>
   </si>
   <si>
-    <t>01/04/2021</t>
+    <t>1,533.32</t>
   </si>
   <si>
-    <t>ILIM April 2021</t>
+    <t>01/06/2021</t>
   </si>
   <si>
-    <t>1155233</t>
+    <t>ILIM Julne 2021</t>
   </si>
   <si>
-    <t>15/03/2021</t>
+    <t>1173522</t>
   </si>
   <si>
-    <t>29/03/2021</t>
+    <t>5,984.01</t>
   </si>
   <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -1226,14 +1223,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1246,6 +1235,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -1273,7 +1270,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -1500,11 +1497,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5415,33 +5415,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="112"/>
+      <c r="A1" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="114" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="107" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -10700,11 +10700,11 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>625.33</v>
+        <v>173.54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -10720,11 +10720,11 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>1355.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -10740,11 +10740,11 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>373.12</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -10760,11 +10760,11 @@
         <v>1791.06</v>
       </c>
       <c r="F5" s="107">
-        <v>3333.03</v>
+        <v>895.53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -10780,11 +10780,11 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>723.33</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -10800,11 +10800,11 @@
         <v>254.17</v>
       </c>
       <c r="F7" s="107">
-        <v>444.38</v>
+        <v>127.08</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -10820,11 +10820,11 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>2056.67</v>
+        <v>585.42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -10840,11 +10840,11 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>200.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -10860,12 +10860,12 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>1899.17</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -10880,15 +10880,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>1708.33</v>
+        <v>433.33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -10900,15 +10900,15 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -10920,7 +10920,7 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>733.0</v>
+        <v>366.5</v>
       </c>
     </row>
   </sheetData>
@@ -16030,11 +16030,11 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>798.88</v>
+        <v>173.54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -16050,11 +16050,11 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>1710.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -16070,11 +16070,11 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>480.0</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -16090,11 +16090,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>4131.44</v>
+        <v>798.41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -16110,11 +16110,11 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>928.33</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -16130,11 +16130,11 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -16150,11 +16150,11 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>2642.08</v>
+        <v>585.42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -16170,11 +16170,11 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>250.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -16190,12 +16190,12 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>2374.17</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -16210,15 +16210,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>2141.67</v>
+        <v>433.33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -16230,15 +16230,15 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>1500.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -16250,12 +16250,12 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>1099.5</v>
+        <v>366.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
-        <v>223</v>
+      <c r="A14" s="111" t="s">
+        <v>222</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>88</v>
@@ -21382,11 +21382,11 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>451.79</v>
+        <v>173.54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -21402,11 +21402,11 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>1000.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -21422,11 +21422,11 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>266.25</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -21442,11 +21442,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>2437.5</v>
+        <v>268.56</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -21462,11 +21462,11 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>518.33</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -21482,11 +21482,11 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -21502,11 +21502,11 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>1471.25</v>
+        <v>585.42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -21522,11 +21522,11 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>150.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -21542,12 +21542,12 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>1424.17</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -21562,15 +21562,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>1275.0</v>
+        <v>433.33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -21586,11 +21586,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -21606,11 +21606,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="107" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -21622,7 +21622,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>366.5</v>
+        <v>75.0</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -26736,7 +26736,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -26750,7 +26750,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -26764,7 +26764,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -26778,7 +26778,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -26792,7 +26792,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -26806,7 +26806,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -26820,7 +26820,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -26834,8 +26834,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -26848,11 +26848,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -26862,11 +26862,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -26876,11 +26876,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="107" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -26912,25 +26912,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="113"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="112"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="107" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -26997,7 +26997,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -27017,7 +27017,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -27037,7 +27037,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -27057,7 +27057,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -27077,7 +27077,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -27097,7 +27097,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -27117,7 +27117,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -27137,7 +27137,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -32244,7 +32244,7 @@
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>122</v>
@@ -32256,12 +32256,12 @@
         <v>347.08</v>
       </c>
       <c r="E2" s="107">
-        <v>1319.5</v>
+        <v>173.54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
-      <c r="A3" s="110" t="s">
-        <v>205</v>
+      <c r="A3" s="111" t="s">
+        <v>204</v>
       </c>
       <c r="B3" s="107" t="s">
         <v>124</v>
@@ -32273,12 +32273,12 @@
         <v>710.0</v>
       </c>
       <c r="E3" s="107">
-        <v>2775.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="110" t="s">
-        <v>206</v>
+      <c r="A4" s="111" t="s">
+        <v>205</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>126</v>
@@ -32290,12 +32290,12 @@
         <v>213.75</v>
       </c>
       <c r="E4" s="107">
-        <v>800.62</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="110" t="s">
-        <v>207</v>
+      <c r="A5" s="111" t="s">
+        <v>206</v>
       </c>
       <c r="B5" s="107" t="s">
         <v>128</v>
@@ -32307,12 +32307,12 @@
         <v>1596.82</v>
       </c>
       <c r="E5" s="107">
-        <v>4400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="110" t="s">
-        <v>208</v>
+      <c r="A6" s="111" t="s">
+        <v>207</v>
       </c>
       <c r="B6" s="107" t="s">
         <v>130</v>
@@ -32324,12 +32324,12 @@
         <v>410.0</v>
       </c>
       <c r="E6" s="107">
-        <v>1543.33</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="110" t="s">
-        <v>209</v>
+      <c r="A7" s="111" t="s">
+        <v>208</v>
       </c>
       <c r="B7" s="107" t="s">
         <v>132</v>
@@ -32341,12 +32341,12 @@
         <v>0.0</v>
       </c>
       <c r="E7" s="107">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="110" t="s">
-        <v>210</v>
+      <c r="A8" s="111" t="s">
+        <v>209</v>
       </c>
       <c r="B8" s="107" t="s">
         <v>134</v>
@@ -32358,12 +32358,12 @@
         <v>1170.83</v>
       </c>
       <c r="E8" s="107">
-        <v>4398.33</v>
+        <v>585.42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="110" t="s">
-        <v>211</v>
+      <c r="A9" s="111" t="s">
+        <v>210</v>
       </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
@@ -32375,12 +32375,12 @@
         <v>100.0</v>
       </c>
       <c r="E9" s="107">
-        <v>400.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="110" t="s">
-        <v>212</v>
+      <c r="A10" s="111" t="s">
+        <v>211</v>
       </c>
       <c r="B10" s="107" t="s">
         <v>137</v>
@@ -32392,12 +32392,12 @@
         <v>950.0</v>
       </c>
       <c r="E10" s="107">
-        <v>3799.17</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="110" t="s">
-        <v>213</v>
+      <c r="A11" s="111" t="s">
+        <v>212</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -32409,15 +32409,15 @@
         <v>866.67</v>
       </c>
       <c r="E11" s="107">
-        <v>3441.67</v>
+        <v>433.33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="107" t="s">
         <v>214</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>53</v>
@@ -32426,15 +32426,15 @@
         <v>1000.0</v>
       </c>
       <c r="E12" s="107">
-        <v>3000.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="107" t="s">
         <v>216</v>
-      </c>
-      <c r="B13" s="107" t="s">
-        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>56</v>
@@ -32443,15 +32443,15 @@
         <v>733.0</v>
       </c>
       <c r="E13" s="107">
-        <v>2199.0</v>
+        <v>366.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45">
-      <c r="A14" s="110" t="s">
-        <v>226</v>
+      <c r="A14" s="111" t="s">
+        <v>225</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>90</v>
@@ -32460,7 +32460,7 @@
         <v>150.0</v>
       </c>
       <c r="E14" s="107">
-        <v>300.0</v>
+        <v>75.0</v>
       </c>
     </row>
   </sheetData>
@@ -32486,25 +32486,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="113"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="112"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -37635,11 +37635,11 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="107">
-        <v>1319.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -37655,11 +37655,11 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>3130.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -37675,11 +37675,11 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>907.5</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -37695,11 +37695,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>4400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -37715,11 +37715,11 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>1748.33</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -37735,11 +37735,11 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -37755,11 +37755,11 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>4400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -37775,11 +37775,11 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>450.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -37795,12 +37795,12 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>4274.17</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -37815,15 +37815,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>4400.0</v>
+        <v>108.35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -37835,15 +37835,15 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>3500.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -37855,15 +37855,15 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>2565.5</v>
+        <v>366.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="107" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -37875,7 +37875,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>375.0</v>
+        <v>75.0</v>
       </c>
     </row>
   </sheetData>
@@ -43196,11 +43196,11 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="107">
-        <v>451.79</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -43216,11 +43216,11 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>1000.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -43236,11 +43236,11 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>266.25</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -43256,11 +43256,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>2437.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -43276,11 +43276,11 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>518.33</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -43296,11 +43296,11 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -43316,11 +43316,11 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>1471.25</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -43336,11 +43336,11 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>150.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -43356,12 +43356,12 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>1424.17</v>
+        <v>125.83</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -43376,15 +43376,15 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>1275.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -43400,11 +43400,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -43420,11 +43420,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="107" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -43436,12 +43436,12 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>366.5</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="110" t="s">
-        <v>223</v>
+      <c r="A15" s="111" t="s">
+        <v>222</v>
       </c>
       <c r="B15" s="107" t="s">
         <v>88</v>
@@ -43456,12 +43456,12 @@
         <v>325.0</v>
       </c>
       <c r="F15" s="107">
-        <v>0.0</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="110" t="s">
-        <v>223</v>
+      <c r="A16" s="111" t="s">
+        <v>222</v>
       </c>
       <c r="B16" s="107" t="s">
         <v>88</v>
@@ -43476,12 +43476,12 @@
         <v>97.5</v>
       </c>
       <c r="F16" s="107">
-        <v>0.0</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="110" t="s">
-        <v>223</v>
+      <c r="A17" s="111" t="s">
+        <v>222</v>
       </c>
       <c r="B17" s="107" t="s">
         <v>88</v>
@@ -43496,7 +43496,7 @@
         <v>7331.26</v>
       </c>
       <c r="F17" s="107">
-        <v>0.0</v>
+        <v>3665.63</v>
       </c>
     </row>
   </sheetData>
@@ -48772,31 +48772,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="112" t="s">
         <v>150</v>
       </c>
     </row>
@@ -48823,10 +48823,10 @@
         <v>156</v>
       </c>
       <c r="H13" s="107" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I13" s="107" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -48834,7 +48834,7 @@
         <v>151</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>153</v>
@@ -48843,19 +48843,19 @@
         <v>154</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H14" s="107" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I14" s="107" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -48863,7 +48863,7 @@
         <v>151</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="107" t="s">
         <v>153</v>
@@ -48872,106 +48872,106 @@
         <v>154</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F15" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="H15" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="107" t="s">
         <v>166</v>
-      </c>
-      <c r="H15" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="I15" s="107" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="C16" s="107" t="s">
         <v>169</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>170</v>
       </c>
       <c r="D16" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E16" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="107" t="s">
+      <c r="G16" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="107" t="s">
+      <c r="H16" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="107" t="s">
         <v>173</v>
-      </c>
-      <c r="H16" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="107" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E17" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="107" t="s">
+      <c r="H17" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="107" t="s">
         <v>177</v>
-      </c>
-      <c r="H17" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="107" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E18" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="107" t="s">
+      <c r="H18" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="107" t="s">
         <v>181</v>
-      </c>
-      <c r="H18" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" s="107" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -48979,28 +48979,28 @@
         <v>151</v>
       </c>
       <c r="B19" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="107" t="s">
         <v>183</v>
-      </c>
-      <c r="C19" s="107" t="s">
-        <v>184</v>
       </c>
       <c r="D19" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E19" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="107" t="s">
+      <c r="G19" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="G19" s="107" t="s">
+      <c r="H19" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="107" t="s">
+      <c r="I19" s="107" t="s">
         <v>188</v>
-      </c>
-      <c r="I19" s="107" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -49008,28 +49008,28 @@
         <v>151</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E20" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="F20" s="107" t="s">
+      <c r="G20" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="107" t="s">
+      <c r="I20" s="107" t="s">
         <v>193</v>
-      </c>
-      <c r="I20" s="107" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -49037,28 +49037,28 @@
         <v>151</v>
       </c>
       <c r="B21" s="107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E21" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" s="107" t="s">
+      <c r="I21" s="107" t="s">
         <v>197</v>
-      </c>
-      <c r="I21" s="107" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -52873,7 +52873,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -52887,7 +52887,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -52901,7 +52901,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -52915,7 +52915,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -52929,7 +52929,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -52943,7 +52943,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -52957,7 +52957,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -52971,7 +52971,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -53007,25 +53007,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="113"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="112"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="107" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -58379,7 +58379,7 @@
     </row>
     <row r="2" spans="1:3" ht="45">
       <c r="A2" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>122</v>
@@ -58389,8 +58389,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="110" t="s">
-        <v>205</v>
+      <c r="A3" s="111" t="s">
+        <v>204</v>
       </c>
       <c r="B3" s="107" t="s">
         <v>124</v>
@@ -58400,8 +58400,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="110" t="s">
-        <v>206</v>
+      <c r="A4" s="111" t="s">
+        <v>205</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>126</v>
@@ -58411,8 +58411,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="110" t="s">
-        <v>207</v>
+      <c r="A5" s="111" t="s">
+        <v>206</v>
       </c>
       <c r="B5" s="107" t="s">
         <v>128</v>
@@ -58422,8 +58422,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="110" t="s">
-        <v>208</v>
+      <c r="A6" s="111" t="s">
+        <v>207</v>
       </c>
       <c r="B6" s="107" t="s">
         <v>130</v>
@@ -58433,8 +58433,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
-      <c r="A7" s="110" t="s">
-        <v>209</v>
+      <c r="A7" s="111" t="s">
+        <v>208</v>
       </c>
       <c r="B7" s="107" t="s">
         <v>132</v>
@@ -58444,8 +58444,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
-      <c r="A8" s="110" t="s">
-        <v>210</v>
+      <c r="A8" s="111" t="s">
+        <v>209</v>
       </c>
       <c r="B8" s="107" t="s">
         <v>134</v>
@@ -58455,8 +58455,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="45">
-      <c r="A9" s="110" t="s">
-        <v>211</v>
+      <c r="A9" s="111" t="s">
+        <v>210</v>
       </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
@@ -58466,8 +58466,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="45">
-      <c r="A10" s="110" t="s">
-        <v>212</v>
+      <c r="A10" s="111" t="s">
+        <v>211</v>
       </c>
       <c r="B10" s="107" t="s">
         <v>137</v>
@@ -58477,8 +58477,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45">
-      <c r="A11" s="110" t="s">
-        <v>213</v>
+      <c r="A11" s="111" t="s">
+        <v>212</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -58488,22 +58488,22 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="107" t="s">
         <v>214</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="107" t="s">
         <v>216</v>
-      </c>
-      <c r="B13" s="107" t="s">
-        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>56</v>
